--- a/src/test/resources/testdata/loginData.xlsx
+++ b/src/test/resources/testdata/loginData.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A836106F-7B85-4EFC-829D-F06D6A2983FD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9B2F6E3-F93D-4BC4-844B-80BF654E2FB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LoginData" sheetId="1" r:id="rId1"/>
@@ -378,17 +378,16 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -410,7 +409,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -421,7 +420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
